--- a/xlsx/美国国会图书馆控制号_intext.xlsx
+++ b/xlsx/美国国会图书馆控制号_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国会图书馆 (美国)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_美国国会图书馆控制号</t>
+    <t>政策_政策_维基百科_美国国会图书馆控制号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%9B%BE%E4%B9%A6%E5%88%86%E7%B1%BB%E6%B3%95</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Stub</t>

--- a/xlsx/美国国会图书馆控制号_intext.xlsx
+++ b/xlsx/美国国会图书馆控制号_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国会图书馆 (美国)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_美国国会图书馆控制号</t>
+    <t>体育运动_体育运动_体育_美国国会图书馆控制号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%9B%BE%E4%B9%A6%E5%88%86%E7%B1%BB%E6%B3%95</t>
